--- a/data/trans_orig/P14A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E72F5F3D-0F87-4993-BC3A-C54D4A6A1604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3B6FB1-EF12-47CF-938F-F3AD3DE8EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85F26E35-4CF9-4D56-9C0D-EACC1799ED32}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{331C7B6F-4B90-42B6-A8A3-8163F4969F20}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="196">
   <si>
     <t>Población que recibe medicación o terapia por mala circulación en 2012 (Tasa respuesta: 6,36%)</t>
   </si>
@@ -105,13 +105,13 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>33,14%</t>
+    <t>33,42%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>44,18%</t>
+    <t>44,32%</t>
   </si>
   <si>
     <t>33,21%</t>
@@ -120,13 +120,13 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>66,86%</t>
+    <t>66,58%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>55,82%</t>
+    <t>55,68%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -138,469 +138,457 @@
     <t>53,73%</t>
   </si>
   <si>
-    <t>31,79%</t>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por mala circulación en 2015 (Tasa respuesta: 4,61%)</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>72,29%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por mala circulación en 2015 (Tasa respuesta: 4,61%)</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>74,53%</t>
@@ -609,31 +597,31 @@
     <t>69,59%</t>
   </si>
   <si>
-    <t>79,42%</t>
+    <t>79,39%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,58%</t>
+    <t>20,61%</t>
   </si>
   <si>
     <t>30,41%</t>
@@ -1048,7 +1036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F164F6AC-7C66-405D-9DBE-E9F182D51C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DF34BF-6050-4B18-B08E-554B1CF88471}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1801,13 +1789,13 @@
         <v>38176</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -1816,13 +1804,13 @@
         <v>51519</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,13 +1825,13 @@
         <v>1012</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -1852,13 +1840,13 @@
         <v>20561</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -1867,13 +1855,13 @@
         <v>21573</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,7 +1917,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1938,16 +1926,16 @@
         <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>67048</v>
+        <v>67047</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -1956,13 +1944,13 @@
         <v>171663</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>220</v>
@@ -1971,13 +1959,13 @@
         <v>238711</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +1980,13 @@
         <v>6155</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -2007,13 +1995,13 @@
         <v>41546</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -2022,13 +2010,13 @@
         <v>47701</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,7 +2028,7 @@
         <v>67</v>
       </c>
       <c r="D21" s="7">
-        <v>73203</v>
+        <v>73202</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -2096,13 +2084,13 @@
         <v>93599</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>231</v>
@@ -2111,13 +2099,13 @@
         <v>250204</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>317</v>
@@ -2126,13 +2114,13 @@
         <v>343802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2135,13 @@
         <v>11256</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>87</v>
@@ -2162,13 +2150,13 @@
         <v>95628</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>97</v>
@@ -2177,13 +2165,13 @@
         <v>106885</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,7 +2227,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2261,7 +2249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F000004F-1873-46C2-9636-FDBC0D387730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3D3AEB-0EB3-4582-B673-109F895F3A79}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2278,7 +2266,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2549,13 +2537,13 @@
         <v>1006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2564,13 +2552,13 @@
         <v>1006</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,10 +2588,10 @@
         <v>6146</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>12</v>
@@ -2615,10 +2603,10 @@
         <v>7098</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>12</v>
@@ -2702,13 +2690,13 @@
         <v>8341</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2717,13 +2705,13 @@
         <v>8341</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2739,13 @@
         <v>8987</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2766,13 +2754,13 @@
         <v>8987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,10 +2826,10 @@
         <v>8645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -2853,13 +2841,13 @@
         <v>16384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2868,13 +2856,13 @@
         <v>25029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2877,13 @@
         <v>2652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2904,13 +2892,13 @@
         <v>8668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2919,13 +2907,13 @@
         <v>11319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,10 +2981,10 @@
         <v>11769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -3008,13 +2996,13 @@
         <v>38951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3023,13 +3011,13 @@
         <v>50720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3032,13 @@
         <v>2209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3059,13 +3047,13 @@
         <v>9533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3074,13 +3062,13 @@
         <v>11742</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3124,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3148,13 +3136,13 @@
         <v>41776</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -3163,13 +3151,13 @@
         <v>122668</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -3178,13 +3166,13 @@
         <v>164445</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3187,13 @@
         <v>12598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -3214,13 +3202,13 @@
         <v>32439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -3229,13 +3217,13 @@
         <v>45037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3291,13 @@
         <v>62191</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7">
         <v>162</v>
@@ -3318,13 +3306,13 @@
         <v>187350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -3333,13 +3321,13 @@
         <v>249541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3342,13 @@
         <v>19521</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3369,13 +3357,13 @@
         <v>65773</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -3384,13 +3372,13 @@
         <v>85294</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3434,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A18-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3B6FB1-EF12-47CF-938F-F3AD3DE8EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68F13AAC-A5ED-49D7-B749-3655C72BA95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{331C7B6F-4B90-42B6-A8A3-8163F4969F20}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E03F4A21-2D7A-41D6-93B0-96BACBD26724}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="200">
   <si>
     <t>Población que recibe medicación o terapia por mala circulación en 2012 (Tasa respuesta: 6,36%)</t>
   </si>
@@ -105,13 +105,13 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>33,42%</t>
+    <t>33,2%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>44,32%</t>
+    <t>43,72%</t>
   </si>
   <si>
     <t>33,21%</t>
@@ -120,13 +120,13 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>66,58%</t>
+    <t>66,8%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>55,68%</t>
+    <t>56,28%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -138,493 +138,505 @@
     <t>53,73%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>72,35%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por mala circulación en 2015 (Tasa respuesta: 4,61%)</t>
+    <t>Población que recibe medicación o terapia por mala circulación en 2016 (Tasa respuesta: 4,61%)</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>58,44%</t>
+    <t>58,45%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>51,35%</t>
+    <t>51,21%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>41,56%</t>
+    <t>41,55%</t>
   </si>
   <si>
     <t>87,59%</t>
   </si>
   <si>
-    <t>48,65%</t>
+    <t>48,79%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>40,72%</t>
+    <t>42,69%</t>
   </si>
   <si>
     <t>65,4%</t>
   </si>
   <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>59,28%</t>
+    <t>57,31%</t>
   </si>
   <si>
     <t>34,6%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>53,16%</t>
+    <t>55,76%</t>
   </si>
   <si>
     <t>80,34%</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>46,84%</t>
+    <t>44,24%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>76,83%</t>
   </si>
   <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DF34BF-6050-4B18-B08E-554B1CF88471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697CBC06-1630-44E9-AA1E-2939143E7E07}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1789,13 +1801,13 @@
         <v>38176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -1804,13 +1816,13 @@
         <v>51519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1837,13 @@
         <v>1012</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -1840,13 +1852,13 @@
         <v>20561</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -1855,13 +1867,13 @@
         <v>21573</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,7 +1929,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1926,16 +1938,16 @@
         <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>67047</v>
+        <v>67048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -1944,13 +1956,13 @@
         <v>171663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>220</v>
@@ -1959,13 +1971,13 @@
         <v>238711</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1992,13 @@
         <v>6155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -1995,13 +2007,13 @@
         <v>41546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -2010,13 +2022,13 @@
         <v>47701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,7 +2040,7 @@
         <v>67</v>
       </c>
       <c r="D21" s="7">
-        <v>73202</v>
+        <v>73203</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -2084,13 +2096,13 @@
         <v>93599</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>231</v>
@@ -2099,13 +2111,13 @@
         <v>250204</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>317</v>
@@ -2114,13 +2126,13 @@
         <v>343802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2147,13 @@
         <v>11256</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>87</v>
@@ -2150,13 +2162,13 @@
         <v>95628</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>97</v>
@@ -2165,13 +2177,13 @@
         <v>106885</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,7 +2239,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3D3AEB-0EB3-4582-B673-109F895F3A79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E35DA75-EF80-4961-B11C-1EAEEAD26357}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2266,7 +2278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2537,13 +2549,13 @@
         <v>1006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2552,13 +2564,13 @@
         <v>1006</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,10 +2600,10 @@
         <v>6146</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>12</v>
@@ -2603,10 +2615,10 @@
         <v>7098</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>12</v>
@@ -2690,13 +2702,13 @@
         <v>8341</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2705,13 +2717,13 @@
         <v>8341</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2751,13 @@
         <v>8987</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2754,13 +2766,13 @@
         <v>8987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,10 +2838,10 @@
         <v>8645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -2841,13 +2853,13 @@
         <v>16384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2856,13 +2868,13 @@
         <v>25029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2889,13 @@
         <v>2652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2892,13 +2904,13 @@
         <v>8668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2907,13 +2919,13 @@
         <v>11319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,10 +2993,10 @@
         <v>11769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -2996,13 +3008,13 @@
         <v>38951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3011,13 +3023,13 @@
         <v>50720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3044,13 @@
         <v>2209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3047,13 +3059,13 @@
         <v>9533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3062,13 +3074,13 @@
         <v>11742</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3136,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3136,13 +3148,13 @@
         <v>41776</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -3151,13 +3163,13 @@
         <v>122668</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -3166,13 +3178,13 @@
         <v>164445</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3199,13 @@
         <v>12598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -3202,13 +3214,13 @@
         <v>32439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -3217,13 +3229,13 @@
         <v>45037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3303,13 @@
         <v>62191</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>162</v>
@@ -3306,13 +3318,13 @@
         <v>187350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -3321,13 +3333,13 @@
         <v>249541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3354,13 @@
         <v>19521</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3357,13 +3369,13 @@
         <v>65773</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -3372,13 +3384,13 @@
         <v>85294</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,7 +3446,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
